--- a/tervek/user feltöltés teszt fileok/guardians2.xlsx
+++ b/tervek/user feltöltés teszt fileok/guardians2.xlsx
@@ -401,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="3">
-        <v>8793815</v>
+        <v>64523522</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
